--- a/Produktliste.xlsx
+++ b/Produktliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Desktop\HFU\3.SEMESTER_WiSe2021_Sammlung\Informatik\Materialcheckliste_FINAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Git\surgerylogistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE34C9C-F0E3-4D73-8404-C476490B0523}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5248AC7-C14C-4A05-8DB7-17C8DB0A90B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="43200" windowHeight="17685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -303,7 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -317,7 +317,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -545,6 +544,24 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -562,24 +579,6 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -594,13 +593,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0D29D9B-ABDA-43D9-8BBD-28D9E3B249BC}" name="Tabelle3" displayName="Tabelle3" ref="B2:L39" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="B2:L39" xr:uid="{9BA778CB-9C9F-4A03-BCDB-7DFA0E8B466C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:L39">
-    <sortCondition ref="B2:B39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0D29D9B-ABDA-43D9-8BBD-28D9E3B249BC}" name="Tabelle3" displayName="Tabelle3" ref="B2:L27" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="B2:L27" xr:uid="{9BA778CB-9C9F-4A03-BCDB-7DFA0E8B466C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:L27">
+    <sortCondition ref="B2:B27"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{DDA2276D-3AEB-44B8-81B9-7DA27114B338}" name="Produktart" dataDxfId="12" dataCellStyle="Standard 2"/>
+    <tableColumn id="1" xr3:uid="{DDA2276D-3AEB-44B8-81B9-7DA27114B338}" name="Produktart" dataDxfId="10" dataCellStyle="Standard 2"/>
     <tableColumn id="2" xr3:uid="{BCECB150-DA4C-4AB5-862B-B51BDC6CE979}" name="ID" dataDxfId="9" dataCellStyle="Standard 2"/>
     <tableColumn id="3" xr3:uid="{74C7D50C-2F2D-4BA6-9BFE-D957AB59108C}" name="Mindestanzahl" dataDxfId="8" dataCellStyle="Standard 2"/>
     <tableColumn id="4" xr3:uid="{3282603A-AD48-47E7-9983-BD3044A85044}" name="Maximalanzahl" dataDxfId="7" dataCellStyle="Standard 2"/>
@@ -879,31 +878,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L45"/>
+  <dimension ref="B2:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="5"/>
-    <col min="2" max="2" width="29.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="5.453125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="10"/>
-    <col min="8" max="8" width="5.453125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="10"/>
-    <col min="10" max="12" width="5.453125" style="10" customWidth="1"/>
-    <col min="13" max="18" width="3.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.7265625" style="5"/>
+    <col min="1" max="1" width="8.7109375" style="5"/>
+    <col min="2" max="2" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="5.42578125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="9"/>
+    <col min="8" max="8" width="5.42578125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="9"/>
+    <col min="10" max="12" width="5.42578125" style="9" customWidth="1"/>
+    <col min="13" max="18" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" s="1" customFormat="1" ht="141" x14ac:dyDescent="0.35">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="2:12" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -915,13 +914,13 @@
       <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -934,665 +933,524 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>25</v>
       </c>
-      <c r="E3" s="9">
-        <v>100</v>
-      </c>
-      <c r="L3" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E3" s="8">
+        <v>100</v>
+      </c>
+      <c r="L3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>50</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>200</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>25</v>
       </c>
-      <c r="E5" s="9">
-        <v>100</v>
-      </c>
-      <c r="J5" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E5" s="8">
+        <v>100</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>25</v>
       </c>
-      <c r="E6" s="9">
-        <v>100</v>
-      </c>
-      <c r="J6" s="9">
-        <v>1</v>
-      </c>
-      <c r="K6" s="10">
-        <v>1</v>
-      </c>
-      <c r="L6" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E6" s="8">
+        <v>100</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1</v>
+      </c>
+      <c r="L6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>25</v>
       </c>
-      <c r="E7" s="9">
-        <v>100</v>
-      </c>
-      <c r="J7" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E7" s="8">
+        <v>100</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>25</v>
       </c>
-      <c r="E8" s="9">
-        <v>100</v>
-      </c>
-      <c r="J8" s="9">
-        <v>1</v>
-      </c>
-      <c r="K8" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E8" s="8">
+        <v>100</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="9">
-        <v>100</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="D9" s="8">
+        <v>100</v>
+      </c>
+      <c r="E9" s="8">
         <v>300</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>5</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <v>3</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>25</v>
       </c>
-      <c r="E10" s="9">
-        <v>100</v>
-      </c>
-      <c r="K10" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E10" s="8">
+        <v>100</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>25</v>
       </c>
-      <c r="E11" s="9">
-        <v>100</v>
-      </c>
-      <c r="J11" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E11" s="8">
+        <v>100</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>200</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>400</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="8">
         <v>20</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <v>20</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>25</v>
       </c>
-      <c r="E13" s="9">
-        <v>100</v>
-      </c>
-      <c r="J13" s="9">
-        <v>1</v>
-      </c>
-      <c r="K13" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E13" s="8">
+        <v>100</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1</v>
+      </c>
+      <c r="K13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>25</v>
       </c>
-      <c r="E14" s="9">
-        <v>100</v>
-      </c>
-      <c r="J14" s="9">
-        <v>1</v>
-      </c>
-      <c r="K14" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E14" s="8">
+        <v>100</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1</v>
+      </c>
+      <c r="K14" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="9">
-        <v>100</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="D15" s="8">
+        <v>100</v>
+      </c>
+      <c r="E15" s="8">
         <v>200</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="9">
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="8">
         <v>2</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="10">
         <v>2</v>
       </c>
-      <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>25</v>
       </c>
-      <c r="E16" s="9">
-        <v>100</v>
-      </c>
-      <c r="K16" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E16" s="8">
+        <v>100</v>
+      </c>
+      <c r="K16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>50</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>200</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>20</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>50</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <v>5</v>
       </c>
-      <c r="J18" s="9">
-        <v>1</v>
-      </c>
-      <c r="K18" s="9">
-        <v>1</v>
-      </c>
-      <c r="L18" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="J18" s="8">
+        <v>1</v>
+      </c>
+      <c r="K18" s="8">
+        <v>1</v>
+      </c>
+      <c r="L18" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>25</v>
       </c>
-      <c r="E19" s="9">
-        <v>100</v>
-      </c>
-      <c r="K19" s="9">
-        <v>1</v>
-      </c>
-      <c r="L19" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E19" s="8">
+        <v>100</v>
+      </c>
+      <c r="K19" s="8">
+        <v>1</v>
+      </c>
+      <c r="L19" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>20</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>50</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <v>5</v>
       </c>
-      <c r="J20" s="9">
-        <v>1</v>
-      </c>
-      <c r="K20" s="9">
-        <v>1</v>
-      </c>
-      <c r="L20" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="J20" s="8">
+        <v>1</v>
+      </c>
+      <c r="K20" s="8">
+        <v>1</v>
+      </c>
+      <c r="L20" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>25</v>
       </c>
-      <c r="E21" s="9">
-        <v>100</v>
-      </c>
-      <c r="L21" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E21" s="8">
+        <v>100</v>
+      </c>
+      <c r="L21" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>50</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>150</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <v>5</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="8">
         <v>3</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="9">
         <v>3</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>20</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <v>50</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="9">
         <v>5</v>
       </c>
-      <c r="J23" s="9">
-        <v>1</v>
-      </c>
-      <c r="K23" s="10">
-        <v>1</v>
-      </c>
-      <c r="L23" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="J23" s="8">
+        <v>1</v>
+      </c>
+      <c r="K23" s="9">
+        <v>1</v>
+      </c>
+      <c r="L23" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>150</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>500</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="8">
         <v>30</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="9">
         <v>30</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>25</v>
       </c>
-      <c r="E25" s="9">
-        <v>100</v>
-      </c>
-      <c r="L25" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E25" s="8">
+        <v>100</v>
+      </c>
+      <c r="L25" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>25</v>
       </c>
-      <c r="E26" s="9">
-        <v>100</v>
-      </c>
-      <c r="J26" s="9">
-        <v>1</v>
-      </c>
-      <c r="K26" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E26" s="8">
+        <v>100</v>
+      </c>
+      <c r="J26" s="8">
+        <v>1</v>
+      </c>
+      <c r="K26" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>50</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <v>150</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="9">
         <v>5</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="8">
         <v>2</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="8">
         <v>2</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="9"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="J31" s="11"/>
-      <c r="L31" s="9"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="9"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="9"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="J35" s="11"/>
-      <c r="L35" s="9"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="9"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="L38" s="9"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="J39" s="11"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="J40" s="11"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="J41" s="11"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="J42" s="11"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="J43" s="11"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="J44" s="11"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="J45" s="11"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:L38">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:L27">
     <sortCondition ref="B5"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
